--- a/biology/Botanique/Lobeliaceae/Lobeliaceae.xlsx
+++ b/biology/Botanique/Lobeliaceae/Lobeliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goodeniaceae
 La famille des Lobéliacées regroupe des plantes dicotylédones. Cette famille a une histoire incertaine et souvent ces plantes sont incluses dans la famille des Campanulacées.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Lobelia, nommé par Charles Plumier en l'honneur du botaniste flamand Mathias de l'Obel, Carl von Linné le réutilisa par la suite.
 </t>
@@ -544,11 +558,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification phylogénétique APG II (2003)[1], cette famille est optionnelle et ces plantes sont souvent incluses dans la famille des Campanulacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification phylogénétique APG II (2003), cette famille est optionnelle et ces plantes sont souvent incluses dans la famille des Campanulacées.
 L'Angiosperm Phylogeny Website n'accepte pas cette famille.
-En classification phylogénétique APG III (2009)[2] cette famille est invalide et ses genres sont incorporés dans la famille Campanulaceae.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Campanulaceae.
 </t>
         </is>
       </c>
